--- a/cases/goodhostpital2021/指标导向库.xlsx
+++ b/cases/goodhostpital2021/指标导向库.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="指标维度" sheetId="1" r:id="rId1"/>
+    <sheet name="指标导向" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -402,7 +402,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DRGs组数</v>
+        <v>CMI当量DRGs组数</v>
       </c>
       <c r="B3" t="str">
         <v>无标准</v>
